--- a/Misc/Names and Roles.xlsx
+++ b/Misc/Names and Roles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2666370-50E4-4318-922A-BD4A3DA2648B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DEFCFF-1B27-4623-BAD0-90595DE0F84F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="133">
   <si>
     <t>Clint</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Kai</t>
   </si>
   <si>
-    <t>Waver</t>
-  </si>
-  <si>
     <t>Tim</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>Weapon</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Gun</t>
   </si>
   <si>
@@ -392,13 +386,58 @@
   </si>
   <si>
     <t>Puppets</t>
+  </si>
+  <si>
+    <t>Has Art</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Empty Row</t>
+  </si>
+  <si>
+    <t>Alchemy</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Charms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +459,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -484,6 +528,2854 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>657225</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FED431-6052-4A76-890F-EE993B97614C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672C5E34-AC58-4864-B9F3-CD1870447A57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160F036F-F294-4FBA-8912-2ABE25902BD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4A52C6-7A6C-4183-8149-53FC88E22980}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9EDDB47-2AA8-4432-B440-177330803AA1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F239B2-0457-4526-A417-CE7920D74A25}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCB6D90-0F1C-4557-A912-49AC3D64B44B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB6283D-B92D-4002-AB63-DBB36C9B6C40}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02262EAC-3728-4FBC-90E7-4BCE052F4EB3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38E2797-8CBB-476F-9053-6342F1EE8914}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DAB384-C19E-468D-B82E-AD748160EFE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F150DE67-C978-45FF-90DE-BBA58606C860}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA94D40-69C5-4D9C-8C5D-4A390B327458}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F97D2F6-CA77-48C1-A293-02BD52D93B2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5BAEF9-132F-4E3D-9F25-9676D4B36444}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2847E8A5-54C3-4F1F-9B35-E7125579C7B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D1C639-CDBD-4C06-B019-D2BF1797EB3D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="409575" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275CABA5-82B3-4FA1-A242-4B3DD392CF8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8530D809-3EAD-4A5C-A641-EAA7FEDAF9C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5EA2A37-090C-4B2A-B5B1-761D695B08E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DAAFE4D-4602-4C3C-A6CC-2E0BD1CE1C65}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17971501-9AFA-4E02-897C-D613E1A6ADA3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE36122-3C18-4746-AF32-0DCDA14160B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C74BB9-A335-43F0-903B-6AEBD6E6EC6C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5481C35B-07E9-45AA-8D33-5BC7F4B60489}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1087"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECA38AF-5A47-4721-8051-F991BB90B721}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1088"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C45CAC1-E48F-4A32-936F-D585388786A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1995E26A-E38F-4C11-AEE4-8CE115C38CA3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD193FC1-B004-45D3-A1CE-D8A77F547502}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E17FBC48-1316-4D16-B50C-5CDB42357630}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1092"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73DF9FF-86FE-4053-AF1A-97AB77572F76}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1093"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFBFD9D-9B25-4D18-AA06-8381B7C15B59}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1094"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC851180-FF5C-4AD6-9C95-D995C7F272DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1095"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627A4D63-1807-4388-B52B-9A7267D941F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1096"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA021E3E-15C0-49A1-A394-11C66C610EC5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72E26CF-E858-4185-82DC-8D959ADA0E3A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1098"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8241D6C2-77C2-4ECD-A3EF-1DA7F61399A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D626DF46-6E23-4988-ACAD-67A38690F058}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1100"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4290AD4C-00F2-4EDA-AE98-EC7B342D3911}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1101"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6691EA9-2D1A-48FF-A870-99297C47B0F2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1102"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD67D9E-547E-4B8C-B512-A7C87DCD7A43}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1103"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576D0A0C-3A25-46CF-8B4B-A51B844C074E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1104"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8558DD-5151-431D-8965-99E0BFC0CDF9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,11 +3674,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EC1268-822F-42DC-AF82-8F6A09141282}">
-  <dimension ref="A1:K44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EC1268-822F-42DC-AF82-8F6A09141282}">
+  <sheetPr codeName="Blad1"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -795,10 +3688,17 @@
     <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="11.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="9.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -809,13 +3709,40 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -826,10 +3753,35 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="G2" s="2">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2">
+        <v>60</v>
+      </c>
+      <c r="N2" s="2">
+        <f>SUM(G2:M2)</f>
+        <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -837,13 +3789,17 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N44" si="0">SUM(G3:M3)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -854,10 +3810,14 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -868,10 +3828,14 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -882,10 +3846,14 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -896,10 +3864,14 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -910,10 +3882,14 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -924,10 +3900,14 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>129</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
@@ -938,10 +3918,14 @@
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -952,10 +3936,14 @@
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -966,10 +3954,14 @@
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
@@ -980,10 +3972,14 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -994,10 +3990,14 @@
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1008,10 +4008,14 @@
         <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1022,10 +4026,14 @@
         <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -1036,12 +4044,16 @@
         <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
@@ -1050,12 +4062,16 @@
         <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
@@ -1064,12 +4080,37 @@
         <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>99</v>
+        <v>132</v>
+      </c>
+      <c r="G19" s="2">
+        <v>40</v>
+      </c>
+      <c r="H19" s="2">
+        <v>50</v>
+      </c>
+      <c r="I19" s="2">
+        <v>50</v>
+      </c>
+      <c r="J19" s="2">
+        <v>40</v>
+      </c>
+      <c r="K19" s="2">
+        <v>45</v>
+      </c>
+      <c r="L19" s="2">
+        <v>50</v>
+      </c>
+      <c r="M19" s="2">
+        <v>40</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="0"/>
+        <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
@@ -1078,10 +4119,14 @@
         <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -1092,12 +4137,16 @@
         <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
@@ -1106,10 +4155,14 @@
         <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -1120,24 +4173,32 @@
         <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -1148,12 +4209,16 @@
         <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -1162,271 +4227,1295 @@
         <v>45</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="N30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId4" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>238125</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1063" r:id="rId5" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1064" r:id="rId6" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId7" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1066" r:id="rId8" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId9" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId10" name="Check Box 44">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1069" r:id="rId11" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1070" r:id="rId12" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1071" r:id="rId13" name="Check Box 47">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId14" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1073" r:id="rId15" name="Check Box 49">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" r:id="rId16" name="Check Box 50">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId17" name="Check Box 51">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId18" name="Check Box 52">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId19" name="Check Box 53">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId20" name="Check Box 54">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId21" name="Check Box 55">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId22" name="Check Box 56">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId23" name="Check Box 57">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId24" name="Check Box 58">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId25" name="Check Box 59">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId26" name="Check Box 60">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId27" name="Check Box 61">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1086" r:id="rId28" name="Check Box 62">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1087" r:id="rId29" name="Check Box 63">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1088" r:id="rId30" name="Check Box 64">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1089" r:id="rId31" name="Check Box 65">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1090" r:id="rId32" name="Check Box 66">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1091" r:id="rId33" name="Check Box 67">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1092" r:id="rId34" name="Check Box 68">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1093" r:id="rId35" name="Check Box 69">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1094" r:id="rId36" name="Check Box 70">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1095" r:id="rId37" name="Check Box 71">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1096" r:id="rId38" name="Check Box 72">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1097" r:id="rId39" name="Check Box 73">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1098" r:id="rId40" name="Check Box 74">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1099" r:id="rId41" name="Check Box 75">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>38</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>38</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1100" r:id="rId42" name="Check Box 76">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1101" r:id="rId43" name="Check Box 77">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1102" r:id="rId44" name="Check Box 78">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1103" r:id="rId45" name="Check Box 79">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1104" r:id="rId46" name="Check Box 80">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -1435,7 +5524,7 @@
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/Misc/Names and Roles.xlsx
+++ b/Misc/Names and Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DEFCFF-1B27-4623-BAD0-90595DE0F84F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF979CF5-F9A3-4EA8-983A-B138C90749D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>

--- a/Misc/Names and Roles.xlsx
+++ b/Misc/Names and Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF979CF5-F9A3-4EA8-983A-B138C90749D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E040565-7895-474B-A73C-D2B67A71CC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
   <si>
     <t>Clint</t>
   </si>
@@ -328,9 +328,6 @@
     <t>Staff</t>
   </si>
   <si>
-    <t>Magic Dust</t>
-  </si>
-  <si>
     <t>Kunai</t>
   </si>
   <si>
@@ -431,13 +428,19 @@
   </si>
   <si>
     <t>Charms</t>
+  </si>
+  <si>
+    <t>Fairy Dust</t>
+  </si>
+  <si>
+    <t>Dark Magic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,11 +462,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -559,7 +557,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,7 +685,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -727,7 +725,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FED431-6052-4A76-890F-EE993B97614C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -773,14 +771,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
@@ -789,7 +792,7 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672C5E34-AC58-4864-B9F3-CD1870447A57}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -829,20 +832,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
@@ -851,7 +859,7 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160F036F-F294-4FBA-8912-2ABE25902BD2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -891,20 +899,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
@@ -913,7 +926,7 @@
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4A52C6-7A6C-4183-8149-53FC88E22980}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -953,20 +966,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
@@ -975,7 +993,7 @@
                   <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9EDDB47-2AA8-4432-B440-177330803AA1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1015,20 +1033,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
@@ -1037,7 +1060,7 @@
                   <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F239B2-0457-4526-A417-CE7920D74A25}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1077,20 +1100,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
@@ -1099,7 +1127,7 @@
                   <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCB6D90-0F1C-4557-A912-49AC3D64B44B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1139,20 +1167,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
@@ -1161,7 +1194,7 @@
                   <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB6283D-B92D-4002-AB63-DBB36C9B6C40}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1201,20 +1234,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
@@ -1223,7 +1261,7 @@
                   <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02262EAC-3728-4FBC-90E7-4BCE052F4EB3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1263,20 +1301,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
@@ -1285,7 +1328,7 @@
                   <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38E2797-8CBB-476F-9053-6342F1EE8914}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1325,20 +1368,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
@@ -1347,7 +1395,7 @@
                   <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DAB384-C19E-468D-B82E-AD748160EFE7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1387,20 +1435,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
@@ -1409,7 +1462,7 @@
                   <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F150DE67-C978-45FF-90DE-BBA58606C860}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1449,20 +1502,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
@@ -1471,7 +1529,7 @@
                   <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA94D40-69C5-4D9C-8C5D-4A390B327458}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1511,20 +1569,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
@@ -1533,7 +1596,7 @@
                   <a14:compatExt spid="_x0000_s1075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F97D2F6-CA77-48C1-A293-02BD52D93B2D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1573,20 +1636,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
@@ -1595,7 +1663,7 @@
                   <a14:compatExt spid="_x0000_s1076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5BAEF9-132F-4E3D-9F25-9676D4B36444}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1635,20 +1703,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
@@ -1657,7 +1730,7 @@
                   <a14:compatExt spid="_x0000_s1077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2847E8A5-54C3-4F1F-9B35-E7125579C7B0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1697,20 +1770,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
@@ -1719,7 +1797,7 @@
                   <a14:compatExt spid="_x0000_s1078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D1C639-CDBD-4C06-B019-D2BF1797EB3D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1759,20 +1837,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="409575" cy="200025"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
@@ -1781,7 +1864,7 @@
                   <a14:compatExt spid="_x0000_s1079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275CABA5-82B3-4FA1-A242-4B3DD392CF8E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1821,20 +1904,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
@@ -1843,7 +1931,7 @@
                   <a14:compatExt spid="_x0000_s1080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8530D809-3EAD-4A5C-A641-EAA7FEDAF9C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1883,20 +1971,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
@@ -1905,7 +1998,7 @@
                   <a14:compatExt spid="_x0000_s1081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5EA2A37-090C-4B2A-B5B1-761D695B08E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1945,20 +2038,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
@@ -1967,7 +2065,7 @@
                   <a14:compatExt spid="_x0000_s1082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DAAFE4D-4602-4C3C-A6CC-2E0BD1CE1C65}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2007,20 +2105,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
@@ -2029,7 +2132,7 @@
                   <a14:compatExt spid="_x0000_s1083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17971501-9AFA-4E02-897C-D613E1A6ADA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2069,20 +2172,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
@@ -2091,7 +2199,7 @@
                   <a14:compatExt spid="_x0000_s1084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE36122-3C18-4746-AF32-0DCDA14160B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2131,20 +2239,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
@@ -2153,7 +2266,7 @@
                   <a14:compatExt spid="_x0000_s1085"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C74BB9-A335-43F0-903B-6AEBD6E6EC6C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2193,20 +2306,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
@@ -2215,7 +2333,7 @@
                   <a14:compatExt spid="_x0000_s1086"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5481C35B-07E9-45AA-8D33-5BC7F4B60489}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2255,20 +2373,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
@@ -2277,7 +2400,7 @@
                   <a14:compatExt spid="_x0000_s1087"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECA38AF-5A47-4721-8051-F991BB90B721}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2317,20 +2440,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
@@ -2339,7 +2467,7 @@
                   <a14:compatExt spid="_x0000_s1088"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C45CAC1-E48F-4A32-936F-D585388786A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2379,20 +2507,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
@@ -2401,7 +2534,7 @@
                   <a14:compatExt spid="_x0000_s1089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1995E26A-E38F-4C11-AEE4-8CE115C38CA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2441,20 +2574,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
@@ -2463,7 +2601,7 @@
                   <a14:compatExt spid="_x0000_s1090"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD193FC1-B004-45D3-A1CE-D8A77F547502}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2503,20 +2641,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
@@ -2525,7 +2668,7 @@
                   <a14:compatExt spid="_x0000_s1091"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E17FBC48-1316-4D16-B50C-5CDB42357630}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2565,20 +2708,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
@@ -2587,7 +2735,7 @@
                   <a14:compatExt spid="_x0000_s1092"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73DF9FF-86FE-4053-AF1A-97AB77572F76}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2627,20 +2775,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
@@ -2649,7 +2802,7 @@
                   <a14:compatExt spid="_x0000_s1093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFBFD9D-9B25-4D18-AA06-8381B7C15B59}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2689,20 +2842,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
@@ -2711,7 +2869,7 @@
                   <a14:compatExt spid="_x0000_s1094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC851180-FF5C-4AD6-9C95-D995C7F272DA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2751,20 +2909,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
@@ -2773,7 +2936,7 @@
                   <a14:compatExt spid="_x0000_s1095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627A4D63-1807-4388-B52B-9A7267D941F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2813,20 +2976,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
@@ -2835,7 +3003,7 @@
                   <a14:compatExt spid="_x0000_s1096"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA021E3E-15C0-49A1-A394-11C66C610EC5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2875,20 +3043,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
@@ -2897,7 +3070,7 @@
                   <a14:compatExt spid="_x0000_s1097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72E26CF-E858-4185-82DC-8D959ADA0E3A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2937,20 +3110,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
@@ -2959,7 +3137,7 @@
                   <a14:compatExt spid="_x0000_s1098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8241D6C2-77C2-4ECD-A3EF-1DA7F61399A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2999,20 +3177,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
@@ -3021,7 +3204,7 @@
                   <a14:compatExt spid="_x0000_s1099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D626DF46-6E23-4988-ACAD-67A38690F058}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3061,20 +3244,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
@@ -3083,7 +3271,7 @@
                   <a14:compatExt spid="_x0000_s1100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4290AD4C-00F2-4EDA-AE98-EC7B342D3911}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3123,20 +3311,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
@@ -3145,7 +3338,7 @@
                   <a14:compatExt spid="_x0000_s1101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6691EA9-2D1A-48FF-A870-99297C47B0F2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3185,20 +3378,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
@@ -3207,7 +3405,7 @@
                   <a14:compatExt spid="_x0000_s1102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD67D9E-547E-4B8C-B512-A7C87DCD7A43}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3247,20 +3445,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
@@ -3269,7 +3472,7 @@
                   <a14:compatExt spid="_x0000_s1103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576D0A0C-3A25-46CF-8B4B-A51B844C074E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3309,20 +3512,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1028700" cy="200025"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
@@ -3331,7 +3539,7 @@
                   <a14:compatExt spid="_x0000_s1104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8558DD-5151-431D-8965-99E0BFC0CDF9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3371,7 +3579,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -3679,7 +3887,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3712,34 +3920,34 @@
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -3864,11 +4072,32 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>132</v>
+      </c>
+      <c r="G7" s="2">
+        <v>55</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2">
+        <v>55</v>
+      </c>
+      <c r="J7" s="2">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2">
+        <v>45</v>
+      </c>
+      <c r="L7" s="2">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>45</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -3882,7 +4111,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
@@ -3900,7 +4129,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="0"/>
@@ -3918,7 +4147,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="0"/>
@@ -3936,7 +4165,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="0"/>
@@ -3990,7 +4219,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="0"/>
@@ -4026,7 +4255,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="0"/>
@@ -4046,9 +4275,30 @@
       <c r="D17" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="G17" s="2">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2">
+        <v>60</v>
+      </c>
+      <c r="I17" s="2">
+        <v>50</v>
+      </c>
+      <c r="J17" s="2">
+        <v>35</v>
+      </c>
+      <c r="K17" s="2">
+        <v>50</v>
+      </c>
+      <c r="L17" s="2">
+        <v>35</v>
+      </c>
+      <c r="M17" s="2">
+        <v>50</v>
+      </c>
       <c r="N17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -4080,7 +4330,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" s="2">
         <v>40</v>
@@ -4119,7 +4369,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="0"/>
@@ -4137,7 +4387,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="0"/>
@@ -4155,7 +4405,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="0"/>
@@ -4191,7 +4441,7 @@
         <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="0"/>
@@ -4209,7 +4459,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="0"/>
@@ -4218,7 +4468,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -4227,7 +4477,7 @@
         <v>45</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="0"/>
@@ -4245,7 +4495,7 @@
         <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="0"/>
@@ -4263,7 +4513,7 @@
         <v>57</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="0"/>
@@ -4281,7 +4531,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="0"/>
@@ -4299,7 +4549,7 @@
         <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="2"/>
       <c r="N30" s="2">
@@ -4336,7 +4586,7 @@
         <v>64</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="0"/>
@@ -4354,7 +4604,7 @@
         <v>68</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="0"/>
@@ -4372,7 +4622,7 @@
         <v>69</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="0"/>
@@ -4390,7 +4640,7 @@
         <v>72</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="0"/>
@@ -4408,7 +4658,7 @@
         <v>75</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="0"/>
@@ -4444,7 +4694,7 @@
         <v>81</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="0"/>
@@ -4462,7 +4712,7 @@
         <v>80</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="0"/>
@@ -4480,7 +4730,7 @@
         <v>82</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="0"/>
@@ -4498,7 +4748,7 @@
         <v>84</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="0"/>
@@ -4516,7 +4766,7 @@
         <v>85</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="0"/>
@@ -4534,7 +4784,7 @@
         <v>89</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="0"/>
@@ -4552,7 +4802,7 @@
         <v>90</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="0"/>

--- a/Misc/Names and Roles.xlsx
+++ b/Misc/Names and Roles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E040565-7895-474B-A73C-D2B67A71CC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDCF46F-4EA5-4982-8F4B-495228359932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="1" r:id="rId1"/>
@@ -3887,7 +3887,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3964,29 +3964,29 @@
         <v>93</v>
       </c>
       <c r="G2" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2">
         <v>55</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>45</v>
       </c>
-      <c r="K2" s="2">
-        <v>35</v>
-      </c>
       <c r="L2" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M2" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N2" s="2">
         <f>SUM(G2:M2)</f>
-        <v>315</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -4075,29 +4075,29 @@
         <v>132</v>
       </c>
       <c r="G7" s="2">
+        <v>65</v>
+      </c>
+      <c r="H7" s="2">
         <v>55</v>
       </c>
-      <c r="H7" s="2">
-        <v>45</v>
-      </c>
       <c r="I7" s="2">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2">
         <v>55</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>40</v>
       </c>
-      <c r="K7" s="2">
-        <v>45</v>
-      </c>
-      <c r="L7" s="2">
-        <v>30</v>
-      </c>
       <c r="M7" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -4276,29 +4276,29 @@
         <v>95</v>
       </c>
       <c r="G17" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H17" s="2">
+        <v>70</v>
+      </c>
+      <c r="I17" s="2">
         <v>60</v>
       </c>
-      <c r="I17" s="2">
-        <v>50</v>
-      </c>
       <c r="J17" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K17" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L17" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M17" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -4333,29 +4333,29 @@
         <v>131</v>
       </c>
       <c r="G19" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H19" s="2">
+        <v>70</v>
+      </c>
+      <c r="I19" s="2">
+        <v>60</v>
+      </c>
+      <c r="J19" s="2">
         <v>50</v>
       </c>
-      <c r="I19" s="2">
-        <v>50</v>
-      </c>
-      <c r="J19" s="2">
-        <v>40</v>
-      </c>
       <c r="K19" s="2">
+        <v>55</v>
+      </c>
+      <c r="L19" s="2">
+        <v>60</v>
+      </c>
+      <c r="M19" s="2">
         <v>45</v>
-      </c>
-      <c r="L19" s="2">
-        <v>50</v>
-      </c>
-      <c r="M19" s="2">
-        <v>40</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">

--- a/Misc/Names and Roles.xlsx
+++ b/Misc/Names and Roles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDCF46F-4EA5-4982-8F4B-495228359932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFA423D-F2FA-4153-A1DF-5EB82229F638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
   <si>
     <t>Clint</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>Dark Magic</t>
+  </si>
+  <si>
+    <t>Friendship</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -601,7 +604,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3887,7 +3890,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4371,9 +4374,30 @@
       <c r="D20" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="G20" s="2">
+        <v>65</v>
+      </c>
+      <c r="H20" s="2">
+        <v>60</v>
+      </c>
+      <c r="I20" s="2">
+        <v>55</v>
+      </c>
+      <c r="J20" s="2">
+        <v>60</v>
+      </c>
+      <c r="K20" s="2">
+        <v>60</v>
+      </c>
+      <c r="L20" s="2">
+        <v>35</v>
+      </c>
+      <c r="M20" s="2">
+        <v>50</v>
+      </c>
       <c r="N20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -4497,9 +4521,30 @@
       <c r="D27" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="G27" s="2">
+        <v>80</v>
+      </c>
+      <c r="H27" s="2">
+        <v>40</v>
+      </c>
+      <c r="I27" s="2">
+        <v>70</v>
+      </c>
+      <c r="J27" s="2">
+        <v>55</v>
+      </c>
+      <c r="K27" s="2">
+        <v>35</v>
+      </c>
+      <c r="L27" s="2">
+        <v>50</v>
+      </c>
+      <c r="M27" s="2">
+        <v>58</v>
+      </c>
       <c r="N27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -4568,7 +4613,7 @@
         <v>62</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="0"/>

--- a/Misc/Names and Roles.xlsx
+++ b/Misc/Names and Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFA423D-F2FA-4153-A1DF-5EB82229F638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B0F950-0B26-43DD-BB9E-291B0C89A91D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
   <si>
     <t>Clint</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>Friendship</t>
+  </si>
+  <si>
+    <t>Cash</t>
   </si>
 </sst>
 </file>
@@ -676,7 +679,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3890,7 +3893,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4168,7 +4171,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="0"/>
@@ -4831,9 +4834,30 @@
       <c r="D43" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="G43" s="2">
+        <v>60</v>
+      </c>
+      <c r="H43" s="2">
+        <v>60</v>
+      </c>
+      <c r="I43" s="2">
+        <v>70</v>
+      </c>
+      <c r="J43" s="2">
+        <v>40</v>
+      </c>
+      <c r="K43" s="2">
+        <v>40</v>
+      </c>
+      <c r="L43" s="2">
+        <v>50</v>
+      </c>
+      <c r="M43" s="2">
+        <v>65</v>
+      </c>
       <c r="N43" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">

--- a/Misc/Names and Roles.xlsx
+++ b/Misc/Names and Roles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B0F950-0B26-43DD-BB9E-291B0C89A91D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92440C2B-3FAF-4217-8FA2-89271B4DDA5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
   <si>
     <t>Clint</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>Cash</t>
+  </si>
+  <si>
+    <t>Lute</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3893,7 +3896,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4261,11 +4264,32 @@
         <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>104</v>
+        <v>136</v>
+      </c>
+      <c r="G16" s="2">
+        <v>50</v>
+      </c>
+      <c r="H16" s="2">
+        <v>65</v>
+      </c>
+      <c r="I16" s="2">
+        <v>50</v>
+      </c>
+      <c r="J16" s="2">
+        <v>50</v>
+      </c>
+      <c r="K16" s="2">
+        <v>70</v>
+      </c>
+      <c r="L16" s="2">
+        <v>40</v>
+      </c>
+      <c r="M16" s="2">
+        <v>60</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">

--- a/Misc/Names and Roles.xlsx
+++ b/Misc/Names and Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92440C2B-3FAF-4217-8FA2-89271B4DDA5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3E50BA-1EF3-4EDD-AFE0-408EF1907852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
@@ -662,7 +662,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,7 +674,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3895,8 +3895,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4786,9 +4786,30 @@
       <c r="D39" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="G39" s="2">
+        <v>45</v>
+      </c>
+      <c r="H39" s="2">
+        <v>60</v>
+      </c>
+      <c r="I39" s="2">
+        <v>75</v>
+      </c>
+      <c r="J39" s="2">
+        <v>50</v>
+      </c>
+      <c r="K39" s="2">
+        <v>45</v>
+      </c>
+      <c r="L39" s="2">
+        <v>60</v>
+      </c>
+      <c r="M39" s="2">
+        <v>50</v>
+      </c>
       <c r="N39" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -4822,9 +4843,30 @@
       <c r="D41" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="G41" s="2">
+        <v>70</v>
+      </c>
+      <c r="H41" s="2">
+        <v>50</v>
+      </c>
+      <c r="I41" s="2">
+        <v>60</v>
+      </c>
+      <c r="J41" s="2">
+        <v>45</v>
+      </c>
+      <c r="K41" s="2">
+        <v>55</v>
+      </c>
+      <c r="L41" s="2">
+        <v>40</v>
+      </c>
+      <c r="M41" s="2">
+        <v>70</v>
+      </c>
       <c r="N41" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">

--- a/Misc/Names and Roles.xlsx
+++ b/Misc/Names and Roles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3E50BA-1EF3-4EDD-AFE0-408EF1907852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C005A01-D9F5-4734-B706-1E28D66ACC91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="1" r:id="rId1"/>
@@ -670,7 +670,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3895,8 +3895,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4047,9 +4047,30 @@
       <c r="D5" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="G5" s="2">
+        <v>85</v>
+      </c>
+      <c r="H5" s="2">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2">
+        <v>70</v>
+      </c>
+      <c r="J5" s="2">
+        <v>85</v>
+      </c>
+      <c r="K5" s="2">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>55</v>
+      </c>
+      <c r="M5" s="2">
+        <v>35</v>
+      </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">

--- a/Misc/Names and Roles.xlsx
+++ b/Misc/Names and Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C005A01-D9F5-4734-B706-1E28D66ACC91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F86CE90-9FE7-4F47-A4DB-3F60A62DD1F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
@@ -650,7 +650,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3896,7 +3896,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4753,9 +4753,30 @@
       <c r="D36" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="G36" s="2">
+        <v>55</v>
+      </c>
+      <c r="H36" s="2">
+        <v>55</v>
+      </c>
+      <c r="I36" s="2">
+        <v>55</v>
+      </c>
+      <c r="J36" s="2">
+        <v>55</v>
+      </c>
+      <c r="K36" s="2">
+        <v>55</v>
+      </c>
+      <c r="L36" s="2">
+        <v>55</v>
+      </c>
+      <c r="M36" s="2">
+        <v>55</v>
+      </c>
       <c r="N36" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">

--- a/Misc/Names and Roles.xlsx
+++ b/Misc/Names and Roles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F86CE90-9FE7-4F47-A4DB-3F60A62DD1F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6413306-12E4-4A49-9584-CAE4B0B777CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="138">
   <si>
     <t>Clint</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>Lute</t>
+  </si>
+  <si>
+    <t>Spirits</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3896,7 +3899,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4231,11 +4234,32 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
+      </c>
+      <c r="G13" s="2">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2">
+        <v>70</v>
+      </c>
+      <c r="I13" s="2">
+        <v>60</v>
+      </c>
+      <c r="J13" s="2">
+        <v>40</v>
+      </c>
+      <c r="K13" s="2">
+        <v>70</v>
+      </c>
+      <c r="L13" s="2">
+        <v>40</v>
+      </c>
+      <c r="M13" s="2">
+        <v>55</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">

--- a/Misc/Names and Roles.xlsx
+++ b/Misc/Names and Roles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6413306-12E4-4A49-9584-CAE4B0B777CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE6D44-D7B0-4A19-BC22-69A5DCF6BF5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -633,7 +635,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,7 +651,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3898,8 +3900,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4687,9 +4689,30 @@
       <c r="D31" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="G31" s="2">
+        <v>60</v>
+      </c>
+      <c r="H31" s="2">
+        <v>80</v>
+      </c>
+      <c r="I31" s="2">
+        <v>55</v>
+      </c>
+      <c r="J31" s="2">
+        <v>45</v>
+      </c>
+      <c r="K31" s="2">
+        <v>45</v>
+      </c>
+      <c r="L31" s="2">
+        <v>40</v>
+      </c>
+      <c r="M31" s="2">
+        <v>65</v>
+      </c>
       <c r="N31" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -4759,9 +4782,30 @@
       <c r="D35" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="G35" s="2">
+        <v>70</v>
+      </c>
+      <c r="H35" s="2">
+        <v>50</v>
+      </c>
+      <c r="I35" s="2">
+        <v>65</v>
+      </c>
+      <c r="J35" s="2">
+        <v>50</v>
+      </c>
+      <c r="K35" s="2">
+        <v>70</v>
+      </c>
+      <c r="L35" s="2">
+        <v>40</v>
+      </c>
+      <c r="M35" s="2">
+        <v>40</v>
+      </c>
       <c r="N35" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">

--- a/Misc/Names and Roles.xlsx
+++ b/Misc/Names and Roles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE6D44-D7B0-4A19-BC22-69A5DCF6BF5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662EB22D-8FA1-402C-A78C-226B21A4CAF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -603,7 +603,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3900,8 +3900,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4295,9 +4295,30 @@
       <c r="D15" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="G15" s="2">
+        <v>55</v>
+      </c>
+      <c r="H15" s="2">
+        <v>65</v>
+      </c>
+      <c r="I15" s="2">
+        <v>65</v>
+      </c>
+      <c r="J15" s="2">
+        <v>55</v>
+      </c>
+      <c r="K15" s="2">
+        <v>45</v>
+      </c>
+      <c r="L15" s="2">
+        <v>50</v>
+      </c>
+      <c r="M15" s="2">
+        <v>55</v>
+      </c>
       <c r="N15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -4541,9 +4562,30 @@
       <c r="D24" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="G24" s="2">
+        <v>70</v>
+      </c>
+      <c r="H24" s="2">
+        <v>55</v>
+      </c>
+      <c r="I24" s="2">
+        <v>70</v>
+      </c>
+      <c r="J24" s="2">
+        <v>55</v>
+      </c>
+      <c r="K24" s="2">
+        <v>45</v>
+      </c>
+      <c r="L24" s="2">
+        <v>40</v>
+      </c>
+      <c r="M24" s="2">
+        <v>60</v>
+      </c>
       <c r="N24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">

--- a/Misc/Names and Roles.xlsx
+++ b/Misc/Names and Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShiMapleLeaf\Documents\Parallel Heroes\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662EB22D-8FA1-402C-A78C-226B21A4CAF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58E8304-456D-4723-835C-C751164FCAB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF0C7BE9-5DEA-4A5F-B898-9F15494C8668}"/>
   </bookViews>
@@ -607,7 +607,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3901,7 +3901,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4601,9 +4601,30 @@
       <c r="D25" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="G25" s="2">
+        <v>80</v>
+      </c>
+      <c r="H25" s="2">
+        <v>45</v>
+      </c>
+      <c r="I25" s="2">
+        <v>70</v>
+      </c>
+      <c r="J25" s="2">
+        <v>45</v>
+      </c>
+      <c r="K25" s="2">
+        <v>55</v>
+      </c>
+      <c r="L25" s="2">
+        <v>60</v>
+      </c>
+      <c r="M25" s="2">
+        <v>40</v>
+      </c>
       <c r="N25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
